--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgi3-Flot1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgi3-Flot1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2994946666666666</v>
+        <v>0.2994946666666667</v>
       </c>
       <c r="H2">
-        <v>0.8984839999999999</v>
+        <v>0.8984840000000001</v>
       </c>
       <c r="I2">
         <v>0.4989451716962827</v>
       </c>
       <c r="J2">
-        <v>0.4989451716962827</v>
+        <v>0.4989451716962828</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.235521</v>
+        <v>10.23707633333333</v>
       </c>
       <c r="N2">
-        <v>66.706563</v>
+        <v>30.711229</v>
       </c>
       <c r="O2">
-        <v>0.4229672982130731</v>
+        <v>0.2523196022162781</v>
       </c>
       <c r="P2">
-        <v>0.4229672982130731</v>
+        <v>0.2523196022162781</v>
       </c>
       <c r="Q2">
-        <v>6.659419950054667</v>
+        <v>3.065949764092889</v>
       </c>
       <c r="R2">
-        <v>59.934779550492</v>
+        <v>27.593547876836</v>
       </c>
       <c r="S2">
-        <v>0.2110374912288346</v>
+        <v>0.1258936472501387</v>
       </c>
       <c r="T2">
-        <v>0.2110374912288346</v>
+        <v>0.1258936472501387</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2994946666666666</v>
+        <v>0.2994946666666667</v>
       </c>
       <c r="H3">
-        <v>0.8984839999999999</v>
+        <v>0.8984840000000001</v>
       </c>
       <c r="I3">
         <v>0.4989451716962827</v>
       </c>
       <c r="J3">
-        <v>0.4989451716962827</v>
+        <v>0.4989451716962828</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>66.770342</v>
       </c>
       <c r="O3">
-        <v>0.4233717026689394</v>
+        <v>0.5485767480449855</v>
       </c>
       <c r="P3">
-        <v>0.4233717026689395</v>
+        <v>0.5485767480449855</v>
       </c>
       <c r="Q3">
-        <v>6.665787106836444</v>
+        <v>6.665787106836445</v>
       </c>
       <c r="R3">
         <v>59.992083961528</v>
       </c>
       <c r="S3">
-        <v>0.2112392668795015</v>
+        <v>0.2737097197418937</v>
       </c>
       <c r="T3">
-        <v>0.2112392668795016</v>
+        <v>0.2737097197418937</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2994946666666666</v>
+        <v>0.2994946666666667</v>
       </c>
       <c r="H4">
-        <v>0.8984839999999999</v>
+        <v>0.8984840000000001</v>
       </c>
       <c r="I4">
         <v>0.4989451716962827</v>
       </c>
       <c r="J4">
-        <v>0.4989451716962827</v>
+        <v>0.4989451716962828</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,10 +682,10 @@
         <v>24.234018</v>
       </c>
       <c r="O4">
-        <v>0.1536609991179875</v>
+        <v>0.1991036497387364</v>
       </c>
       <c r="P4">
-        <v>0.1536609991179876</v>
+        <v>0.1991036497387364</v>
       </c>
       <c r="Q4">
         <v>2.419319714301333</v>
@@ -694,10 +694,10 @@
         <v>21.773877428712</v>
       </c>
       <c r="S4">
-        <v>0.07666841358794664</v>
+        <v>0.09934180470425039</v>
       </c>
       <c r="T4">
-        <v>0.07666841358794665</v>
+        <v>0.0993418047042504</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,7 +726,7 @@
         <v>0.9022829999999999</v>
       </c>
       <c r="I5">
-        <v>0.5010548283037173</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="J5">
         <v>0.5010548283037172</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.235521</v>
+        <v>10.23707633333333</v>
       </c>
       <c r="N5">
-        <v>66.706563</v>
+        <v>30.711229</v>
       </c>
       <c r="O5">
-        <v>0.4229672982130731</v>
+        <v>0.2523196022162781</v>
       </c>
       <c r="P5">
-        <v>0.4229672982130731</v>
+        <v>0.2523196022162781</v>
       </c>
       <c r="Q5">
-        <v>6.687577531481001</v>
+        <v>3.078913315089666</v>
       </c>
       <c r="R5">
-        <v>60.188197783329</v>
+        <v>27.710219835807</v>
       </c>
       <c r="S5">
-        <v>0.2119298069842385</v>
+        <v>0.1264259549661395</v>
       </c>
       <c r="T5">
-        <v>0.2119298069842385</v>
+        <v>0.1264259549661395</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,7 +788,7 @@
         <v>0.9022829999999999</v>
       </c>
       <c r="I6">
-        <v>0.5010548283037173</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="J6">
         <v>0.5010548283037172</v>
@@ -806,10 +806,10 @@
         <v>66.770342</v>
       </c>
       <c r="O6">
-        <v>0.4233717026689394</v>
+        <v>0.5485767480449855</v>
       </c>
       <c r="P6">
-        <v>0.4233717026689395</v>
+        <v>0.5485767480449855</v>
       </c>
       <c r="Q6">
         <v>6.693971610087334</v>
@@ -818,10 +818,10 @@
         <v>60.245744490786</v>
       </c>
       <c r="S6">
-        <v>0.2121324357894379</v>
+        <v>0.2748670283030917</v>
       </c>
       <c r="T6">
-        <v>0.2121324357894379</v>
+        <v>0.2748670283030917</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,7 +850,7 @@
         <v>0.9022829999999999</v>
       </c>
       <c r="I7">
-        <v>0.5010548283037173</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="J7">
         <v>0.5010548283037172</v>
@@ -868,10 +868,10 @@
         <v>24.234018</v>
       </c>
       <c r="O7">
-        <v>0.1536609991179875</v>
+        <v>0.1991036497387364</v>
       </c>
       <c r="P7">
-        <v>0.1536609991179876</v>
+        <v>0.1991036497387364</v>
       </c>
       <c r="Q7">
         <v>2.429549162566</v>
@@ -880,10 +880,10 @@
         <v>21.865942463094</v>
       </c>
       <c r="S7">
-        <v>0.07699258553004089</v>
+        <v>0.09976184503448603</v>
       </c>
       <c r="T7">
-        <v>0.07699258553004089</v>
+        <v>0.09976184503448603</v>
       </c>
     </row>
   </sheetData>
